--- a/task/user_hw_missing.xlsx
+++ b/task/user_hw_missing.xlsx
@@ -8,22 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839BCF95-7922-D343-91AC-538D5218B22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBDF173-974B-2842-AE6C-349F2EF0303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="with_emails" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$S$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">with_emails!$A$1:$S$48</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4237" uniqueCount="522">
   <si>
     <t>Volunteer</t>
   </si>
@@ -1595,7 +1609,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1619,16 +1633,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1636,21 +1697,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF1F497D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1988,8 +2082,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F139" sqref="F139"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A1:S175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12403,4 +12497,2878 @@
     <ignoredError sqref="A1:S18 A20:S60 A19:B19 D19:S19 A62:S129 A61:B61 D61:S61 A131:S175 A130:B130 D130:S130" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28F1686-7927-A042-8FA0-5AF55ECBDCBF}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H58" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S48" xr:uid="{C28F1686-7927-A042-8FA0-5AF55ECBDCBF}">
+    <filterColumn colId="2">
+      <colorFilter dxfId="0" cellColor="0"/>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{4E508A0D-C2E9-5245-B323-4863EE160D62}"/>
+    <hyperlink ref="C24" r:id="rId2" xr:uid="{F43CA288-F75A-B845-900E-C98EECC2A0C6}"/>
+    <hyperlink ref="C33" r:id="rId3" xr:uid="{73E0350D-6F76-C946-8A1A-76EEB6A35B6F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/task/user_hw_missing.xlsx
+++ b/task/user_hw_missing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBDF173-974B-2842-AE6C-349F2EF0303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A34B3-8B03-EC40-8E80-611E77418093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1685,6 +1685,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,7 +1729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1728,8 +1740,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2082,8 +2095,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A1:S175"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3346,34 +3359,34 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="G22" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="G22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>10</v>
       </c>
       <c r="K22" t="s">
@@ -3640,7 +3653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -12438,9 +12451,6 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="&quot;&quot;dormeuswideline92@gmail.com"/>
-        <filter val="&quot;&quot;waldec67@gmail.com"/>
-        <filter val="&lt;jenniferstrong@jestrong.com"/>
         <filter val="6940dg100@gmail.com"/>
         <filter val="barry.rassin@rotary.org"/>
         <filter val="bobcarrie2002@yahoo.fr"/>
@@ -12453,11 +12463,14 @@
         <filter val="crisdanish@gmail.com"/>
         <filter val="dale@haitioutreach.org"/>
         <filter val="davidantrobusster@gmail.com"/>
+        <filter val="dormeuswideline92@gmail.com"/>
         <filter val="eosias@gmail.com"/>
         <filter val="fedelin1407@gmail.com"/>
         <filter val="friscatgilles2509@gmail.com"/>
         <filter val="gernotrunschke@gmail.com"/>
+        <filter val="Gilles Pasteur"/>
         <filter val="guytheo441@gmail.com"/>
+        <filter val="jenniferstrong@jestrong.com"/>
         <filter val="jmbrissau@gmail.com"/>
         <filter val="kathyldevries@gmail.com"/>
         <filter val="KayBommaritoBernard@gmail.com"/>
@@ -12482,6 +12495,7 @@
         <filter val="scottpavlich@yahoo.com"/>
         <filter val="terrym@ridistrict6290.org"/>
         <filter val="ulyssepierregerard@yahoo.fr"/>
+        <filter val="waldec67@gmail.com"/>
         <filter val="wchristoff1944@gmail.com"/>
         <filter val="whitejamesp@comcast.net"/>
       </filters>
@@ -12502,10 +12516,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28F1686-7927-A042-8FA0-5AF55ECBDCBF}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13055,34 +13069,34 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="11" t="s">
+      <c r="G10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -13232,34 +13246,34 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="11" t="s">
         <v>26</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -13350,34 +13364,34 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -15354,9 +15368,6 @@
       <c r="S48" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H58" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S48" xr:uid="{C28F1686-7927-A042-8FA0-5AF55ECBDCBF}">
